--- a/table2.xlsx
+++ b/table2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aimingnie/Documents/School/Stanford/CS_329M/clingendb/Nature-CSU-Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E58924F-05D3-3544-B124-4FC874D7E869}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{97A7B8E3-1CED-3E42-B5EA-E050A8B50CB9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="460" windowWidth="28040" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table2" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,6 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -917,7 +918,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1110,13 +1111,13 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>48.6</v>
       </c>
       <c r="C9">
         <v>76.8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>86.3</v>
       </c>
       <c r="E9">
@@ -1139,22 +1140,22 @@
       <c r="B10">
         <v>48.4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>79.900000000000006</v>
       </c>
       <c r="D10">
         <v>86.1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>62.1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>79.8</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>68</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>82.4</v>
       </c>
     </row>
@@ -1329,25 +1330,25 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>56.5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>70.3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>41.4</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>62.4</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>43.2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>63.4</v>
       </c>
     </row>
@@ -1360,5 +1361,6 @@
     <mergeCell ref="B11:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>